--- a/RAAL/Production/Input/GHI_2024-02-07.xlsx
+++ b/RAAL/Production/Input/GHI_2024-02-07.xlsx
@@ -487,22 +487,22 @@
         <v>15</v>
       </c>
       <c r="G2">
-        <v>2605.45</v>
+        <v>2605.47</v>
       </c>
       <c r="H2">
-        <v>5831.54</v>
+        <v>5831.68</v>
       </c>
       <c r="I2">
-        <v>680.25</v>
+        <v>680.24</v>
       </c>
       <c r="J2">
-        <v>902.62</v>
+        <v>874.98</v>
       </c>
       <c r="K2">
-        <v>3.04</v>
+        <v>101.69</v>
       </c>
       <c r="L2">
-        <v>901.24</v>
+        <v>848.16</v>
       </c>
     </row>
   </sheetData>
@@ -878,13 +878,13 @@
         <v>3.6</v>
       </c>
       <c r="K9">
-        <v>0.73</v>
+        <v>1.47</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.73</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -919,13 +919,13 @@
         <v>42.24</v>
       </c>
       <c r="K10">
-        <v>26.79</v>
+        <v>41.8</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>13.13</v>
       </c>
       <c r="M10">
-        <v>26.79</v>
+        <v>40.33</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -960,13 +960,13 @@
         <v>67.75</v>
       </c>
       <c r="K11">
-        <v>69.95</v>
+        <v>57.79</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>69.95</v>
+        <v>57.79</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -995,19 +995,19 @@
         <v>332.49</v>
       </c>
       <c r="I12">
-        <v>708.34</v>
+        <v>708.35</v>
       </c>
       <c r="J12">
         <v>82.03</v>
       </c>
       <c r="K12">
-        <v>115.28</v>
+        <v>86.63</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>115.28</v>
+        <v>86.63</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1033,22 +1033,22 @@
         <v>11</v>
       </c>
       <c r="H13">
-        <v>411.55</v>
+        <v>411.54</v>
       </c>
       <c r="I13">
-        <v>760.59</v>
+        <v>760.5700000000001</v>
       </c>
       <c r="J13">
         <v>89.81</v>
       </c>
       <c r="K13">
-        <v>143.85</v>
+        <v>107.19</v>
       </c>
       <c r="L13">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>143.57</v>
+        <v>107.19</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1074,22 +1074,22 @@
         <v>12</v>
       </c>
       <c r="H14">
-        <v>442.22</v>
+        <v>442.21</v>
       </c>
       <c r="I14">
-        <v>778.15</v>
+        <v>778.11</v>
       </c>
       <c r="J14">
-        <v>92.54000000000001</v>
+        <v>92.55</v>
       </c>
       <c r="K14">
-        <v>156.25</v>
+        <v>121.03</v>
       </c>
       <c r="L14">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>155.25</v>
+        <v>121.03</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1115,22 +1115,22 @@
         <v>13</v>
       </c>
       <c r="H15">
-        <v>420.95</v>
+        <v>420.94</v>
       </c>
       <c r="I15">
-        <v>766.27</v>
+        <v>766.25</v>
       </c>
       <c r="J15">
         <v>90.63</v>
       </c>
       <c r="K15">
-        <v>143.72</v>
+        <v>125.65</v>
       </c>
       <c r="L15">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>143.62</v>
+        <v>125.65</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1156,22 +1156,22 @@
         <v>14</v>
       </c>
       <c r="H16">
-        <v>350.14</v>
+        <v>350.16</v>
       </c>
       <c r="I16">
-        <v>721.3200000000001</v>
+        <v>721.36</v>
       </c>
       <c r="J16">
-        <v>83.81999999999999</v>
+        <v>83.81</v>
       </c>
       <c r="K16">
-        <v>115.26</v>
+        <v>143.96</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>16.45</v>
       </c>
       <c r="M16">
-        <v>115.26</v>
+        <v>138.1</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1197,22 +1197,22 @@
         <v>15</v>
       </c>
       <c r="H17">
-        <v>238.66</v>
+        <v>238.68</v>
       </c>
       <c r="I17">
-        <v>627.08</v>
+        <v>627.16</v>
       </c>
       <c r="J17">
-        <v>70.92</v>
+        <v>70.91</v>
       </c>
       <c r="K17">
-        <v>84.06999999999999</v>
+        <v>132.55</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>60.6</v>
       </c>
       <c r="M17">
-        <v>84.06999999999999</v>
+        <v>115.19</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1238,22 +1238,22 @@
         <v>16</v>
       </c>
       <c r="H18">
-        <v>104.59</v>
+        <v>104.6</v>
       </c>
       <c r="I18">
-        <v>427.86</v>
+        <v>427.93</v>
       </c>
       <c r="J18">
         <v>48.23</v>
       </c>
       <c r="K18">
-        <v>43.56</v>
+        <v>53.41</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="M18">
-        <v>43.56</v>
+        <v>51.29</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1282,19 +1282,19 @@
         <v>7.15</v>
       </c>
       <c r="I19">
-        <v>54.88</v>
+        <v>54.9</v>
       </c>
       <c r="J19">
         <v>8.67</v>
       </c>
       <c r="K19">
-        <v>3.16</v>
+        <v>3.51</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>3.16</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="20" spans="1:13">
